--- a/medicine/Psychotrope/Liste_des_brasseries_belges/Liste_des_brasseries_belges.xlsx
+++ b/medicine/Psychotrope/Liste_des_brasseries_belges/Liste_des_brasseries_belges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article recense les brasseries belges de production. Les brasseries qui distribuent uniquement des bières qu'elles ne brassent pas elles-mêmes ne sont donc pas reprises. 
-On comptabilise actuellement un peu plus de 400 brasseries de production en Belgique.  Au début des années 2000, la Belgique ne comptait plus qu'une centaine de brasseries. Depuis cette époque, le nombre de sites de production  comprenant de nombreuses microbrasseries a constamment augmenté pour stagner et même légèrement diminuer à environ 400 lieux de production en 2023[1]. Les provinces les plus représentées sont le Hainaut, la Flandre-Occidentale, la Flandre-Orientale et le Brabant flamand.
+On comptabilise actuellement un peu plus de 400 brasseries de production en Belgique.  Au début des années 2000, la Belgique ne comptait plus qu'une centaine de brasseries. Depuis cette époque, le nombre de sites de production  comprenant de nombreuses microbrasseries a constamment augmenté pour stagner et même légèrement diminuer à environ 400 lieux de production en 2023. Les provinces les plus représentées sont le Hainaut, la Flandre-Occidentale, la Flandre-Orientale et le Brabant flamand.
 La liste reprend aussi les gueuzeries qui sont des entreprises de production ou de coupage de gueuze (fermentation spontanée) assemblant des lambics de différents âges issus de brasseries de production et conservés en fûts de chêne. Elles sont uniquement présentes dans l'ancienne province de Brabant.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Brasseries de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste non exhaustive des brasseries belges en activité 
 </t>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,6 +587,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -597,6 +615,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,6 +643,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -649,6 +671,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -675,6 +699,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -701,6 +727,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -727,6 +755,8 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -753,6 +783,8 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -779,6 +811,8 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -805,6 +839,8 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -831,6 +867,8 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -857,6 +895,8 @@
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -883,6 +923,8 @@
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -909,6 +951,8 @@
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -935,6 +979,8 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -961,6 +1007,8 @@
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -987,6 +1035,8 @@
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1013,6 +1063,8 @@
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1039,6 +1091,8 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1065,6 +1119,8 @@
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1091,6 +1147,8 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1116,11 +1174,13 @@
           <t>Groupes brassicoles</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Certaines brasseries ayant conservé leur propre production font partie d'un groupe brassicole plus important. 
 Quatre importants groupes brassicoles internationaux sont implantés en Belgique : 
-AB InBev avec cinq brasseries (brasseries Artois, Jupiler, Hoegaarden, Belle-Vue et Bosteels) représente plus de 56 % de part du marché belge[3].
+AB InBev avec cinq brasseries (brasseries Artois, Jupiler, Hoegaarden, Belle-Vue et Bosteels) représente plus de 56 % de part du marché belge.
 Heineken par l'entremise d'Alken-Maes avec trois sites (brasseries d'Alken, Affligem et Mort Subite).
 Duvel Moortgat avec quatre implantations (brasseries Duvel, d'Achouffe, Liefmans et De Koninck).
 Bavaria par l'entremise de Palm Belgian Craft Brewers avec trois brasseries (brasseries Palm, Rodenbach et micro-brasserie De Hoorn).
@@ -1153,7 +1213,9 @@
           <t>Anciennes brasseries</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début du XXe siècle, la Belgique comptait plus de 3 000 brasseries de production. La plupart ont cessé leur activité, le plus souvent à la suite d'un rachat par une brasserie concurrente. Parmi celles-ci, on peut citer :
 </t>
